--- a/Data/DebtandOverdueBillsCC.xlsx
+++ b/Data/DebtandOverdueBillsCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,6 +16,17 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,7 +45,7 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Dates Used</t>
   </si>
   <si>
     <t xml:space="preserve">Do you currently have overdue bills and/or debt? 
@@ -50,7 +61,7 @@
     <t>Donna Pavetti at Center on Budget Policy and Priorities</t>
   </si>
   <si>
-    <t>11</t>
+    <t>05/02/2021-05/13/2021</t>
   </si>
   <si>
     <t xml:space="preserve">How much do you owe for each of the following that is past due or unpaid?  
@@ -72,63 +83,6 @@
     <t>Have you used any of the following to reduce your debt in the last month? (select all that apply):</t>
   </si>
   <si>
-    <t>How does the amount of debt you have now compare to the amount of debt you had in February 2020 (before the pandemic)?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Much lower  
-• Slightly lower  
-• About the same   
-• Slightly higher    
-• Much higher  
-</t>
-  </si>
-  <si>
-    <t>When you don’t have enough money to pay all your bills, how do you decide which bills to pay?</t>
-  </si>
-  <si>
-    <t>[Free response]</t>
-  </si>
-  <si>
-    <t>What would you like your policymakers to know about your debt, including the debt you’ve accrued during the pandemic?</t>
-  </si>
-  <si>
-    <t>RAPID Developed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Many families have found that they have had difficulty paying for housing and utilities, among other basic needs, during the pandemic. Please describe your circumstances.
-Please describe your housing status:
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• I rent the home I live in  
-• I own the home I live in  
-• I am currently houseless  
-</t>
-  </si>
-  <si>
-    <t>How far behind in mortgage payments are you?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Not behind  
-• 1-3 months behind  
-• 3-6 months behind   
-• More than 6 months behind  
-</t>
-  </si>
-  <si>
-    <t>How far behind in rent are you?</t>
-  </si>
-  <si>
-    <t>If you pay utilities, how far behind in utility payments are you?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Not behind  
-• 1-3 months behind  
-• 3-6 months behind   
-• More than 6 months behind  
-• N/A  </t>
-  </si>
-  <si>
     <t>• Child Tax Credit 
 • Stimulus payment 
 • Housing assistance 
@@ -138,12 +92,69 @@
 • Other (please specify):  [text entry] 
 • Not applicable</t>
   </si>
+  <si>
+    <t>How does the amount of debt you have now compare to the amount of debt you had in February 2020 (before the pandemic)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Much lower  
+• Slightly lower  
+• About the same   
+• Slightly higher    
+• Much higher  
+</t>
+  </si>
+  <si>
+    <t>When you don’t have enough money to pay all your bills, how do you decide which bills to pay?</t>
+  </si>
+  <si>
+    <t>[Free response]</t>
+  </si>
+  <si>
+    <t>What would you like your policymakers to know about your debt, including the debt you’ve accrued during the pandemic?</t>
+  </si>
+  <si>
+    <t>RAPID Developed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Many families have found that they have had difficulty paying for housing and utilities, among other basic needs, during the pandemic. Please describe your circumstances.
+Please describe your housing status:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• I rent the home I live in  
+• I own the home I live in  
+• I am currently houseless  
+</t>
+  </si>
+  <si>
+    <t>How far behind in mortgage payments are you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Not behind  
+• 1-3 months behind  
+• 3-6 months behind   
+• More than 6 months behind  
+</t>
+  </si>
+  <si>
+    <t>How far behind in rent are you?</t>
+  </si>
+  <si>
+    <t>If you pay utilities, how far behind in utility payments are you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Not behind  
+• 1-3 months behind  
+• 3-6 months behind   
+• More than 6 months behind  
+• N/A  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1477,21 +1488,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="24.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="24.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1508,7 +1519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="153" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1523,7 +1534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="242.25" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1538,12 +1549,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="159.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>7</v>
@@ -1553,12 +1564,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="170.1" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>7</v>
@@ -1568,12 +1579,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="102" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>7</v>
@@ -1583,73 +1594,73 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="102" customHeight="1">
       <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="153" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="2"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="153" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="153" customHeight="1">
       <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="102" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="170.1" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="102" customHeight="1">
       <c r="A13" s="5"/>
       <c r="B13" s="8"/>
       <c r="C13" s="2"/>

--- a/Data/DebtandOverdueBillsCC.xlsx
+++ b/Data/DebtandOverdueBillsCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25103"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Question</t>
   </si>
@@ -125,6 +125,9 @@
 • I own the home I live in  
 • I am currently houseless  
 </t>
+  </si>
+  <si>
+    <t>08/04/2021-08/06/2021</t>
   </si>
   <si>
     <t>How far behind in mortgage payments are you?</t>
@@ -1488,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1618,40 +1621,48 @@
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="153" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="153" customHeight="1">
       <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="102" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="170.1" customHeight="1">
       <c r="A12" s="7"/>
